--- a/FWUsefulPageObjects/TestCases/StringChecker/PatternChecker/Main.rvl.xlsx
+++ b/FWUsefulPageObjects/TestCases/StringChecker/PatternChecker/Main.rvl.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="64">
   <si>
     <t>Flow</t>
   </si>
@@ -175,6 +175,36 @@
   </si>
   <si>
     <t>123</t>
+  </si>
+  <si>
+    <t>VerifyContainsOneOf</t>
+  </si>
+  <si>
+    <t>chars</t>
+  </si>
+  <si>
+    <t>No symbols in date</t>
+  </si>
+  <si>
+    <t>25/12/2025</t>
+  </si>
+  <si>
+    <t>Date should include numbers</t>
+  </si>
+  <si>
+    <t>VerifyContainsNoneOf</t>
+  </si>
+  <si>
+    <t>Date should include no special symbols</t>
+  </si>
+  <si>
+    <t>&amp;*&amp;^%$#</t>
+  </si>
+  <si>
+    <t>*&amp;^%$#</t>
+  </si>
+  <si>
+    <t>*&amp;^%$#/</t>
   </si>
 </sst>
 </file>
@@ -195,7 +225,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="197">
+  <borders count="214">
     <border>
       <left/>
       <right/>
@@ -399,11 +429,28 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="197">
+  <cellXfs count="214">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0"/>
@@ -601,6 +648,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="194" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="195" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="196" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="197" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="198" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="199" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="200" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="201" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="202" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="203" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="204" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="205" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="206" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="207" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="208" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="209" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="210" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="211" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="212" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="213" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -610,7 +674,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H47"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.34375" customWidth="true"/>
@@ -1113,33 +1177,144 @@
     </row>
     <row r="34">
       <c r="A34" s="137"/>
-      <c r="B34" s="138"/>
-      <c r="C34" s="139"/>
-      <c r="D34" s="140"/>
-      <c r="E34" s="141"/>
-      <c r="F34" s="142"/>
-      <c r="G34" s="143"/>
+      <c r="B34" s="138" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="139" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="140" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" s="141" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="142" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="143" t="s">
+        <v>58</v>
+      </c>
       <c r="H34" s="144"/>
     </row>
     <row r="35">
-      <c r="A35" s="145"/>
-      <c r="B35" s="146"/>
-      <c r="C35" s="147"/>
-      <c r="D35" s="148"/>
-      <c r="E35" s="149"/>
-      <c r="F35" s="150"/>
-      <c r="G35" s="151"/>
-      <c r="H35" s="152"/>
+      <c r="A35" s="197"/>
+      <c r="B35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" t="s">
+        <v>39</v>
+      </c>
+      <c r="F35" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="153"/>
-      <c r="B36" s="154"/>
-      <c r="C36" s="155"/>
-      <c r="D36" s="156"/>
-      <c r="E36" s="157"/>
-      <c r="F36" s="158"/>
-      <c r="G36" s="159"/>
-      <c r="H36" s="160"/>
+      <c r="A36" s="198"/>
+      <c r="B36" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" t="s">
+        <v>55</v>
+      </c>
+      <c r="F36" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="145"/>
+      <c r="B37" s="146"/>
+      <c r="C37" s="147"/>
+      <c r="D37" s="148"/>
+      <c r="E37" s="149"/>
+      <c r="F37" s="150"/>
+      <c r="G37" s="151"/>
+      <c r="H37" s="152"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="207"/>
+      <c r="B38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" t="s">
+        <v>59</v>
+      </c>
+      <c r="E38" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="208"/>
+      <c r="B39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" t="s">
+        <v>39</v>
+      </c>
+      <c r="F39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="209"/>
+      <c r="B40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" t="s">
+        <v>55</v>
+      </c>
+      <c r="F40" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="204"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="153"/>
+      <c r="B42" s="154"/>
+      <c r="C42" s="155"/>
+      <c r="D42" s="156"/>
+      <c r="E42" s="157"/>
+      <c r="F42" s="158"/>
+      <c r="G42" s="159"/>
+      <c r="H42" s="160"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="199"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="200"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="201"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="202"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="203"/>
     </row>
   </sheetData>
 </worksheet>
